--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1310095.92348071</v>
+        <v>-1312945.345670038</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>11.74351853662194</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>210.9869441036476</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>50.43441120586408</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44.17579562641288</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>44.17579562641288</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>209.0354045398256</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>134.6751203255737</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>80.30846669433845</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>81.74338334965775</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>237.5251962646695</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>79.31257166150291</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>161.8403868022828</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986267</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>50.49265242093035</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>219.245038753228</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.7116933938545</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>93.40444476188135</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>86.09789039964257</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018862</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>43.7384661432547</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.006596680237</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>980.0440797398257</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>980.0440797398257</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>594.2558271415814</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>594.2558271415814</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>2125.745768720171</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y2" t="n">
-        <v>1735.606436744359</v>
+        <v>2161.237278798084</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="C4" t="n">
         <v>200.8329293182748</v>
@@ -4525,13 +4525,13 @@
         <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>983.0286321745434</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>614.0661152341316</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2486.002217745671</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2486.002217745671</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2133.233562475557</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.767804214477</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.628472238665</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.975337580184</v>
+        <v>1718.744139049042</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.975337580184</v>
+        <v>1349.78162210863</v>
       </c>
       <c r="D8" t="n">
-        <v>1001.709638973434</v>
+        <v>991.51592350188</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>991.51592350188</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V8" t="n">
-        <v>2086.209751111378</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="W8" t="n">
-        <v>1733.441095841264</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.975337580184</v>
+        <v>2108.883471024854</v>
       </c>
       <c r="Y8" t="n">
-        <v>1359.975337580184</v>
+        <v>1718.744139049042</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>332.0575713317425</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988471</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>617.5447102435826</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>537.4310014945897</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>387.314362082254</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>387.314362082254</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>890.4025250955851</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>890.4025250955851</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>890.4025250955851</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="W10" t="n">
-        <v>600.9853550586245</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="X10" t="n">
-        <v>372.9958041606071</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>799.1931750738223</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5118,7 +5118,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>666.64760976565</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>516.5309703533143</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>368.6178767709212</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>368.6178767709212</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,13 +5598,13 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>551.4727111160156</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>404.5827636181052</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
@@ -7324,19 +7324,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,10 +7360,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150025</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,13 +7840,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8532,25 +8532,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>74.01734528517878</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>96.12069185784497</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-3.114746139746838e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>74.38048096164744</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>202.7972259171474</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>335.8035274501895</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>123.071025472215</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>115.0314858713385</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856649</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>32.89260457059996</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.12028678808279</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.01660326104989</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016455</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>79.42624789262628</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1255956.781239608</v>
+        <v>1255956.781239609</v>
       </c>
     </row>
     <row r="8">
@@ -26320,7 +26320,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
@@ -26329,7 +26329,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
@@ -26338,22 +26338,22 @@
         <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728568</v>
       </c>
-      <c r="M2" t="n">
-        <v>164208.3539728567</v>
-      </c>
       <c r="N2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808062</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26421,25 +26421,25 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.53656668272</v>
-      </c>
       <c r="G4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682751</v>
@@ -26451,13 +26451,13 @@
         <v>13668.39582977622</v>
       </c>
       <c r="N4" t="n">
+        <v>13668.39582977622</v>
+      </c>
+      <c r="O4" t="n">
         <v>13668.39582977621</v>
       </c>
-      <c r="O4" t="n">
-        <v>13668.3958297762</v>
-      </c>
       <c r="P4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665138.2480883923</v>
+        <v>-665498.3311041098</v>
       </c>
       <c r="C6" t="n">
-        <v>-128573.1395535862</v>
+        <v>-128573.1395535861</v>
       </c>
       <c r="D6" t="n">
-        <v>-284376.9456473811</v>
+        <v>-284376.945647381</v>
       </c>
       <c r="E6" t="n">
-        <v>-716423.4378333947</v>
+        <v>-716458.1757588306</v>
       </c>
       <c r="F6" t="n">
-        <v>54629.25354741137</v>
+        <v>54594.51562197568</v>
       </c>
       <c r="G6" t="n">
-        <v>54629.25354741137</v>
+        <v>54594.51562197568</v>
       </c>
       <c r="H6" t="n">
-        <v>54629.2535474114</v>
+        <v>54594.51562197565</v>
       </c>
       <c r="I6" t="n">
-        <v>54629.25354741137</v>
+        <v>54594.51562197565</v>
       </c>
       <c r="J6" t="n">
-        <v>-121793.9656451816</v>
+        <v>-121828.7035706173</v>
       </c>
       <c r="K6" t="n">
-        <v>54629.25354741137</v>
+        <v>54594.51562197573</v>
       </c>
       <c r="L6" t="n">
-        <v>27948.12429553343</v>
+        <v>27948.12429553331</v>
       </c>
       <c r="M6" t="n">
-        <v>-76832.66841889345</v>
+        <v>-76832.6684188933</v>
       </c>
       <c r="N6" t="n">
-        <v>47375.84228916524</v>
+        <v>47375.84228916522</v>
       </c>
       <c r="O6" t="n">
-        <v>47375.8422891651</v>
+        <v>47375.84228916516</v>
       </c>
       <c r="P6" t="n">
-        <v>47375.84228916513</v>
+        <v>47375.84228916522</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.9903231268586</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>332.495564780064</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>242.3472027101781</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>42.18876296846366</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>151.606753916404</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>145.4011886946987</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>325.1326623920537</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>90.22706220546544</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.93424943712492</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>61.53251791847592</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286976</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>519.7862086120936</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>169.2687847673337</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>188.4731159523455</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>188.4731159523455</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>212.6331008565868</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>257.2442400081082</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066793</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>388.4444965287602</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>27.13475084531539</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>45.87687150790109</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>45.87687150790109</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
